--- a/pages_hierarchy.xlsx
+++ b/pages_hierarchy.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20386"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20391"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B91C5D98-6D78-44E3-AC8E-B454C5CCCA20}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{971C36B9-B004-48B5-BB4F-9E6F84E9BAB0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="51">
   <si>
     <t>сайт</t>
   </si>
@@ -138,6 +138,42 @@
   <si>
     <t>booking/filials</t>
   </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>title</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>image_collection</t>
+  </si>
+  <si>
+    <t>main_image</t>
+  </si>
+  <si>
+    <t>body</t>
+  </si>
+  <si>
+    <t>custom_css</t>
+  </si>
+  <si>
+    <t>Article</t>
+  </si>
+  <si>
+    <t>aplication</t>
+  </si>
+  <si>
+    <t>slug</t>
+  </si>
+  <si>
+    <t>imageGallery</t>
+  </si>
 </sst>
 </file>
 
@@ -152,12 +188,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -172,9 +214,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -459,19 +504,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K528"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26:C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="1" max="1" width="14.77734375" customWidth="1"/>
     <col min="2" max="2" width="20.33203125" customWidth="1"/>
-    <col min="3" max="3" width="24.77734375" customWidth="1"/>
+    <col min="3" max="3" width="17.44140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.33203125" customWidth="1"/>
-    <col min="5" max="5" width="40.6640625" customWidth="1"/>
-    <col min="6" max="6" width="32.5546875" customWidth="1"/>
-    <col min="7" max="7" width="16.88671875" customWidth="1"/>
-    <col min="8" max="8" width="35.33203125" customWidth="1"/>
+    <col min="5" max="5" width="39.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="29.77734375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="30.109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
@@ -838,7 +885,9 @@
       <c r="K21" s="1"/>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A22" s="1"/>
+      <c r="A22" s="1" t="s">
+        <v>47</v>
+      </c>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
@@ -851,15 +900,33 @@
       <c r="K22" s="1"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A23" s="1"/>
-      <c r="B23" s="1"/>
-      <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
-      <c r="F23" s="1"/>
-      <c r="G23" s="1"/>
-      <c r="H23" s="1"/>
-      <c r="I23" s="1"/>
+      <c r="A23" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="I23" s="2" t="s">
+        <v>46</v>
+      </c>
       <c r="J23" s="1"/>
       <c r="K23" s="1"/>
     </row>
@@ -877,7 +944,9 @@
       <c r="K24" s="1"/>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A25" s="1"/>
+      <c r="A25" s="1" t="s">
+        <v>50</v>
+      </c>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
@@ -890,9 +959,15 @@
       <c r="K25" s="1"/>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A26" s="1"/>
-      <c r="B26" s="1"/>
-      <c r="C26" s="1"/>
+      <c r="A26" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>43</v>
+      </c>
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
